--- a/OI/OI Data-3.xlsx
+++ b/OI/OI Data-3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lean Hog" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feeder Cattle" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Soybean" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Lean Hog" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Feeder Cattle" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Soybean" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -447,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,8 +527,10 @@
           <t>-3,428</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>-367</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-367</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>642</v>
@@ -570,8 +571,10 @@
           <t>-452</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>-931</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-931</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>516</v>
@@ -599,6 +602,50 @@
       </c>
       <c r="L3" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>31 Jul 2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-153</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>+1,735</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>464</v>
+      </c>
+      <c r="E4" t="n">
+        <v>218</v>
+      </c>
+      <c r="F4" t="n">
+        <v>215</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>135</v>
+      </c>
+      <c r="I4" t="n">
+        <v>128</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -612,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,6 +774,37 @@
       </c>
       <c r="I3" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>31 Jul 2024</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-204</v>
+      </c>
+      <c r="C4" t="n">
+        <v>234</v>
+      </c>
+      <c r="D4" t="n">
+        <v>454</v>
+      </c>
+      <c r="E4" t="n">
+        <v>156</v>
+      </c>
+      <c r="F4" t="n">
+        <v>152</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -740,7 +818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,8 +889,10 @@
           <t>-4,462</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>616</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>-511</v>
@@ -849,8 +929,10 @@
           <t>-1,214</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>-100</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-100</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>521</v>
@@ -874,6 +956,46 @@
       </c>
       <c r="J3" t="n">
         <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>31 Jul 2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-2,115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>+1,127</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>546</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>+793</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>403</v>
+      </c>
+      <c r="G4" t="n">
+        <v>313</v>
+      </c>
+      <c r="H4" t="n">
+        <v>37</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
